--- a/2020/June/Others/Price List Update_01.06.2020.xlsx
+++ b/2020/June/Others/Price List Update_01.06.2020.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="141">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>Z50</t>
+  </si>
+  <si>
+    <t>T180</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -927,6 +930,52 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,81 +1036,23 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8010,48 +8001,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -9152,38 +9143,38 @@
       <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="41" t="s">
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="43" t="s">
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="44"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="60"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="46"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="62"/>
       <c r="K46" s="23"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
@@ -9256,45 +9247,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="17.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="30" t="s">
@@ -10267,32 +10258,32 @@
       <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56" t="s">
+      <c r="B46" s="72"/>
+      <c r="C46" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56" t="s">
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="56"/>
-      <c r="I46" s="59"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="75"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="57"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="60"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10315,40 +10306,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="61" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="61" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="61" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="61" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" style="61" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="61" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="61" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="61" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="61" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="61" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="10.85546875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" style="41" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="41" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="41" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="41" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="41" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
       <c r="O1" s="40"/>
       <c r="P1" s="40"/>
       <c r="Q1" s="40"/>
@@ -10362,1523 +10353,1529 @@
       <c r="Y1" s="40"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:25" s="4" customFormat="1" ht="18.75">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="63" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-    </row>
-    <row r="4" spans="1:25" s="68" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+    </row>
+    <row r="4" spans="1:25" s="46" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="65" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="44" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="48">
         <v>780</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="48">
         <v>840</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48">
         <v>10</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="69" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="50">
         <v>1010</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="50">
         <v>1090</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70">
+      <c r="J5" s="48"/>
+      <c r="K5" s="48">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="48">
         <v>800</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="48">
         <v>875</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48">
         <v>10</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="69" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="50">
         <v>1040</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="50">
         <v>1130</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70">
+      <c r="J6" s="48"/>
+      <c r="K6" s="48">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="48">
         <v>810</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="48">
         <v>880</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48">
         <v>10</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="73" t="s">
+      <c r="F7" s="49"/>
+      <c r="G7" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="50">
         <v>970</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="50">
         <v>1050</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70">
+      <c r="J7" s="48"/>
+      <c r="K7" s="48">
         <v>10</v>
       </c>
-      <c r="N7" s="74"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="1:25" ht="15.75">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="48">
         <v>800</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="48">
         <v>870</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48">
         <v>10</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="69" t="s">
+      <c r="F8" s="49"/>
+      <c r="G8" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="50">
         <v>1100</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="50">
         <v>1199</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70">
+      <c r="J8" s="48"/>
+      <c r="K8" s="48">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="48">
         <v>790</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="48">
         <v>860</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="48">
         <v>30</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="48">
         <v>10</v>
       </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="69" t="s">
+      <c r="F9" s="49"/>
+      <c r="G9" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="50">
         <v>1050</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="50">
         <v>1130</v>
       </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70">
+      <c r="J9" s="48"/>
+      <c r="K9" s="48">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="48">
         <v>740</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="48">
         <v>800</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70">
+      <c r="D10" s="48"/>
+      <c r="E10" s="48">
         <v>10</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="69" t="s">
+      <c r="F10" s="49"/>
+      <c r="G10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H10" s="50">
         <v>1100</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="50">
         <v>1190</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70">
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="48">
         <v>740</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="48">
         <v>800</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70">
+      <c r="D11" s="48"/>
+      <c r="E11" s="48">
         <v>10</v>
       </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="69" t="s">
+      <c r="F11" s="49"/>
+      <c r="G11" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="50">
         <v>1330</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="50">
         <v>1450</v>
       </c>
-      <c r="J11" s="70">
+      <c r="J11" s="48">
         <v>100</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="48">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="70">
+      <c r="B12" s="48">
         <v>790</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="48">
         <v>850</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48">
         <v>10</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="69" t="s">
+      <c r="F12" s="49"/>
+      <c r="G12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="50">
         <v>1200</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="50">
         <v>1299</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70">
+      <c r="J12" s="48"/>
+      <c r="K12" s="48">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="70">
+      <c r="B13" s="48">
         <v>800</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="48">
         <v>860</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70">
+      <c r="D13" s="48"/>
+      <c r="E13" s="48">
         <v>10</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="69" t="s">
+      <c r="F13" s="49"/>
+      <c r="G13" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="50">
         <v>12240</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="50">
         <v>12990</v>
       </c>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70">
+      <c r="J13" s="48"/>
+      <c r="K13" s="48">
         <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="70">
+      <c r="B14" s="48">
         <v>920</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="48">
         <v>990</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70">
+      <c r="D14" s="48"/>
+      <c r="E14" s="48">
         <v>10</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="69" t="s">
+      <c r="F14" s="49"/>
+      <c r="G14" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="72">
+      <c r="H14" s="50">
         <v>12090</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="50">
         <v>12990</v>
       </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70">
+      <c r="J14" s="48"/>
+      <c r="K14" s="48">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="70">
+      <c r="B15" s="48">
         <v>915</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15" s="48">
         <v>990</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48">
         <v>0</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="69" t="s">
+      <c r="F15" s="49"/>
+      <c r="G15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="72">
+      <c r="H15" s="50">
         <v>12490</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="50">
         <v>13490</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70">
+      <c r="J15" s="48"/>
+      <c r="K15" s="48">
         <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="48">
         <v>880</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="48">
         <v>950</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70">
+      <c r="D16" s="48"/>
+      <c r="E16" s="48">
         <v>20</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="69" t="s">
+      <c r="F16" s="49"/>
+      <c r="G16" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="72">
+      <c r="H16" s="50">
         <v>5750</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="50">
         <v>6190</v>
       </c>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70">
+      <c r="J16" s="48"/>
+      <c r="K16" s="48">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="70">
+      <c r="B17" s="48">
         <v>845</v>
       </c>
-      <c r="C17" s="70">
+      <c r="C17" s="48">
         <v>910</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70">
+      <c r="D17" s="48"/>
+      <c r="E17" s="48">
         <v>10</v>
       </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="69" t="s">
+      <c r="F17" s="49"/>
+      <c r="G17" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="72">
+      <c r="H17" s="50">
         <v>17790</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="50">
         <v>18990</v>
       </c>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70">
+      <c r="J17" s="48"/>
+      <c r="K17" s="48">
         <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="48">
         <v>820</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="48">
         <v>890</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70">
+      <c r="D18" s="48"/>
+      <c r="E18" s="48">
         <v>10</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="69" t="s">
+      <c r="F18" s="49"/>
+      <c r="G18" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="50">
         <v>1190</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="50">
         <v>1290</v>
       </c>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70">
+      <c r="J18" s="48"/>
+      <c r="K18" s="48">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="72">
+      <c r="B19" s="50">
         <v>880</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="50">
         <v>950</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48">
         <v>10</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="69" t="s">
+      <c r="F19" s="49"/>
+      <c r="G19" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="50">
         <v>10330</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="50">
         <v>10990</v>
       </c>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70">
+      <c r="J19" s="48"/>
+      <c r="K19" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="70">
+      <c r="B20" s="48">
         <v>900</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="48">
         <v>970</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70">
+      <c r="D20" s="48"/>
+      <c r="E20" s="48">
         <v>10</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="69" t="s">
+      <c r="F20" s="49"/>
+      <c r="G20" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="50">
         <v>1100</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="50">
         <v>1190</v>
       </c>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70">
+      <c r="J20" s="48"/>
+      <c r="K20" s="48">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="72">
+      <c r="B21" s="50">
         <v>1040</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="50">
         <v>1120</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70">
+      <c r="D21" s="48"/>
+      <c r="E21" s="48">
         <v>20</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="69" t="s">
+      <c r="F21" s="49"/>
+      <c r="G21" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="72">
+      <c r="H21" s="50">
         <v>1730</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="50">
         <v>1890</v>
       </c>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70">
+      <c r="J21" s="48"/>
+      <c r="K21" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="72">
+      <c r="B22" s="50">
         <v>930</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="50">
         <v>999</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48">
         <v>10</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="69" t="s">
+      <c r="F22" s="49"/>
+      <c r="G22" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="50">
         <v>1250</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="50">
         <v>1350</v>
       </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70">
+      <c r="J22" s="48"/>
+      <c r="K22" s="48">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="70">
+      <c r="B23" s="48">
         <v>940</v>
       </c>
-      <c r="C23" s="70">
+      <c r="C23" s="48">
         <v>1020</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70">
+      <c r="D23" s="48"/>
+      <c r="E23" s="48">
         <v>10</v>
       </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="69" t="s">
+      <c r="F23" s="49"/>
+      <c r="G23" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="72">
+      <c r="H23" s="50">
         <v>1370</v>
       </c>
-      <c r="I23" s="72">
+      <c r="I23" s="50">
         <v>1490</v>
       </c>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70">
+      <c r="J23" s="48"/>
+      <c r="K23" s="48">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="72">
+      <c r="B24" s="50">
         <v>1190</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="50">
         <v>1290</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70">
+      <c r="D24" s="48"/>
+      <c r="E24" s="48">
         <v>10</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="69" t="s">
+      <c r="F24" s="49"/>
+      <c r="G24" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="50">
+        <v>1220</v>
+      </c>
+      <c r="I24" s="50">
+        <v>1320</v>
+      </c>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75">
+      <c r="A25" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="50">
+        <v>1290</v>
+      </c>
+      <c r="C25" s="50">
+        <v>1390</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48">
+        <v>10</v>
+      </c>
+      <c r="F25" s="49"/>
+      <c r="G25" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H25" s="50">
         <v>3610</v>
       </c>
-      <c r="I24" s="72">
+      <c r="I25" s="50">
         <v>3890</v>
       </c>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70">
+      <c r="J25" s="48"/>
+      <c r="K25" s="48">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="72">
+    <row r="26" spans="1:11" ht="15.75">
+      <c r="A26" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="50">
+        <v>1170</v>
+      </c>
+      <c r="C26" s="50">
+        <v>1270</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48">
+        <v>10</v>
+      </c>
+      <c r="F26" s="49"/>
+      <c r="G26" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="50">
+        <v>3890</v>
+      </c>
+      <c r="I26" s="50">
+        <v>4190</v>
+      </c>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75">
+      <c r="A27" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="50">
+        <v>1270</v>
+      </c>
+      <c r="C27" s="50">
+        <v>1370</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48">
+        <v>10</v>
+      </c>
+      <c r="F27" s="49"/>
+      <c r="G27" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="50">
+        <v>4280</v>
+      </c>
+      <c r="I27" s="50">
+        <v>4590</v>
+      </c>
+      <c r="J27" s="48">
+        <v>300</v>
+      </c>
+      <c r="K27" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75">
+      <c r="A28" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="50">
+        <v>1190</v>
+      </c>
+      <c r="C28" s="50">
         <v>1290</v>
       </c>
-      <c r="C25" s="72">
-        <v>1390</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70">
+      <c r="D28" s="48"/>
+      <c r="E28" s="48">
         <v>10</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="72">
+      <c r="F28" s="49"/>
+      <c r="G28" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="50">
+        <v>5650</v>
+      </c>
+      <c r="I28" s="50">
+        <v>6150</v>
+      </c>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75">
+      <c r="A29" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="48">
+        <v>870</v>
+      </c>
+      <c r="C29" s="48">
+        <v>940</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48">
+        <v>10</v>
+      </c>
+      <c r="F29" s="49"/>
+      <c r="G29" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="50">
+        <v>5020</v>
+      </c>
+      <c r="I29" s="50">
+        <v>5390</v>
+      </c>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75">
+      <c r="A30" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="48">
+        <v>1020</v>
+      </c>
+      <c r="C30" s="48">
+        <v>1100</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48">
+        <v>10</v>
+      </c>
+      <c r="F30" s="49"/>
+      <c r="G30" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="50">
+        <v>5280</v>
+      </c>
+      <c r="I30" s="50">
+        <v>5690</v>
+      </c>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75">
+      <c r="A31" s="47"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="50">
+        <v>4180</v>
+      </c>
+      <c r="I31" s="50">
+        <v>4690</v>
+      </c>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75">
+      <c r="A32" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="50">
+        <v>2780</v>
+      </c>
+      <c r="C32" s="50">
+        <v>2990</v>
+      </c>
+      <c r="D32" s="48">
+        <v>450</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="50">
+        <v>5100</v>
+      </c>
+      <c r="I32" s="50">
+        <v>5490</v>
+      </c>
+      <c r="J32" s="48">
+        <v>70</v>
+      </c>
+      <c r="K32" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75">
+      <c r="A33" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="50">
+        <v>2770</v>
+      </c>
+      <c r="C33" s="50">
+        <v>2990</v>
+      </c>
+      <c r="D33" s="48">
+        <v>450</v>
+      </c>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="50">
+        <v>5560</v>
+      </c>
+      <c r="I33" s="50">
+        <v>5990</v>
+      </c>
+      <c r="J33" s="48">
+        <v>200</v>
+      </c>
+      <c r="K33" s="48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75">
+      <c r="A34" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="50">
+        <v>6540</v>
+      </c>
+      <c r="C34" s="50">
+        <v>6990</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="50">
+        <v>5390</v>
+      </c>
+      <c r="I34" s="50">
+        <v>5790</v>
+      </c>
+      <c r="J34" s="48">
+        <v>200</v>
+      </c>
+      <c r="K34" s="48">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75">
+      <c r="A35" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="50">
+        <v>8290</v>
+      </c>
+      <c r="C35" s="50">
+        <v>8890</v>
+      </c>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="50">
+        <v>3560</v>
+      </c>
+      <c r="I35" s="50">
+        <v>3840</v>
+      </c>
+      <c r="J35" s="48">
+        <v>400</v>
+      </c>
+      <c r="K35" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.75">
+      <c r="A36" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="50">
+        <v>8340</v>
+      </c>
+      <c r="C36" s="50">
+        <v>8990</v>
+      </c>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48">
+        <v>100</v>
+      </c>
+      <c r="F36" s="49"/>
+      <c r="G36" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="50">
+        <v>3340</v>
+      </c>
+      <c r="I36" s="50">
+        <v>3590</v>
+      </c>
+      <c r="J36" s="48">
+        <v>600</v>
+      </c>
+      <c r="K36" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15.75">
+      <c r="A37" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="50">
+        <v>9190</v>
+      </c>
+      <c r="C37" s="50">
+        <v>9990</v>
+      </c>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48">
+        <v>170</v>
+      </c>
+      <c r="F37" s="49"/>
+      <c r="G37" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="50">
+        <v>4500</v>
+      </c>
+      <c r="I37" s="50">
+        <v>4790</v>
+      </c>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48">
+        <v>100</v>
+      </c>
+      <c r="Q37" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.75">
+      <c r="A38" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="50">
+        <v>5290</v>
+      </c>
+      <c r="C38" s="50">
+        <v>5690</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48">
+        <v>80</v>
+      </c>
+      <c r="F38" s="49"/>
+      <c r="G38" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="50">
+        <v>5390</v>
+      </c>
+      <c r="I38" s="50">
+        <v>5790</v>
+      </c>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75">
+      <c r="A39" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="50">
+        <v>5010</v>
+      </c>
+      <c r="C39" s="50">
+        <v>5390</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48">
+        <v>70</v>
+      </c>
+      <c r="F39" s="49"/>
+      <c r="G39" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="50">
+        <v>4970</v>
+      </c>
+      <c r="I39" s="50">
+        <v>5290</v>
+      </c>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.75">
+      <c r="A40" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="50">
+        <v>5170</v>
+      </c>
+      <c r="C40" s="50">
+        <v>5499</v>
+      </c>
+      <c r="D40" s="48">
+        <v>50</v>
+      </c>
+      <c r="E40" s="48">
+        <v>50</v>
+      </c>
+      <c r="F40" s="49"/>
+      <c r="G40" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="50">
+        <v>4015</v>
+      </c>
+      <c r="I40" s="50">
+        <v>4390</v>
+      </c>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15.75">
+      <c r="A41" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="50">
+        <v>5750</v>
+      </c>
+      <c r="C41" s="50">
+        <v>6190</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48">
+        <v>80</v>
+      </c>
+      <c r="F41" s="49"/>
+      <c r="G41" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="50">
+        <v>3710</v>
+      </c>
+      <c r="I41" s="50">
+        <v>3990</v>
+      </c>
+      <c r="J41" s="48">
+        <v>200</v>
+      </c>
+      <c r="K41" s="48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15.75">
+      <c r="A42" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="50">
+        <v>5550</v>
+      </c>
+      <c r="C42" s="50">
+        <v>5990</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48">
+        <v>60</v>
+      </c>
+      <c r="F42" s="49"/>
+      <c r="G42" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42" s="50">
+        <v>3620</v>
+      </c>
+      <c r="I42" s="50">
         <v>3890</v>
       </c>
-      <c r="I25" s="72">
-        <v>4190</v>
-      </c>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="72">
-        <v>1170</v>
-      </c>
-      <c r="C26" s="72">
-        <v>1270</v>
-      </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70">
+      <c r="J42" s="48">
+        <v>600</v>
+      </c>
+      <c r="K42" s="48"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75">
+      <c r="A43" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="50">
+        <v>5940</v>
+      </c>
+      <c r="C43" s="50">
+        <v>6390</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48">
+        <v>90</v>
+      </c>
+      <c r="F43" s="49"/>
+      <c r="G43" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="50">
+        <v>4080</v>
+      </c>
+      <c r="I43" s="50">
+        <v>4390</v>
+      </c>
+      <c r="J43" s="48">
+        <v>200</v>
+      </c>
+      <c r="K43" s="48">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15.75">
+      <c r="A44" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="50">
+        <v>5940</v>
+      </c>
+      <c r="C44" s="50">
+        <v>6390</v>
+      </c>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48">
+        <v>90</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="50">
+        <v>4220</v>
+      </c>
+      <c r="I44" s="50">
+        <v>4540</v>
+      </c>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75">
+      <c r="A45" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="50">
+        <v>5510</v>
+      </c>
+      <c r="C45" s="50">
+        <v>5890</v>
+      </c>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48">
+        <v>0</v>
+      </c>
+      <c r="F45" s="49"/>
+      <c r="G45" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="50">
+        <v>3710</v>
+      </c>
+      <c r="I45" s="50">
+        <v>3990</v>
+      </c>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15.75">
+      <c r="A46" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="50">
+        <v>6470</v>
+      </c>
+      <c r="C46" s="50">
+        <v>6990</v>
+      </c>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48">
+        <v>0</v>
+      </c>
+      <c r="F46" s="49"/>
+      <c r="G46" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" s="50">
+        <v>12590</v>
+      </c>
+      <c r="I46" s="50">
+        <v>13490</v>
+      </c>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15.75">
+      <c r="A47" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="50">
+        <v>1220</v>
+      </c>
+      <c r="C47" s="50">
+        <v>1320</v>
+      </c>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48">
+        <v>20</v>
+      </c>
+      <c r="F47" s="49"/>
+      <c r="G47" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H47" s="50">
+        <v>7350</v>
+      </c>
+      <c r="I47" s="50">
+        <v>7990</v>
+      </c>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15.75">
+      <c r="A48" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="50">
+        <v>1460</v>
+      </c>
+      <c r="C48" s="50">
+        <v>1590</v>
+      </c>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48">
         <v>10</v>
       </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="72">
-        <v>4280</v>
-      </c>
-      <c r="I26" s="72">
-        <v>4590</v>
-      </c>
-      <c r="J26" s="70">
-        <v>300</v>
-      </c>
-      <c r="K26" s="70">
+      <c r="F48" s="49"/>
+      <c r="G48" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="50">
+        <v>7890</v>
+      </c>
+      <c r="I48" s="50">
+        <v>8490</v>
+      </c>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="72">
-        <v>1270</v>
-      </c>
-      <c r="C27" s="72">
-        <v>1370</v>
-      </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70">
+    <row r="49" spans="1:11" ht="15.75">
+      <c r="A49" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="50">
+        <v>1070</v>
+      </c>
+      <c r="C49" s="50">
+        <v>1160</v>
+      </c>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48">
         <v>10</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="72">
-        <v>5650</v>
-      </c>
-      <c r="I27" s="72">
-        <v>6150</v>
-      </c>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="72">
-        <v>1190</v>
-      </c>
-      <c r="C28" s="72">
-        <v>1290</v>
-      </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70">
+      <c r="F49" s="49"/>
+      <c r="G49" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="H49" s="50">
+        <v>8310</v>
+      </c>
+      <c r="I49" s="50">
+        <v>8990</v>
+      </c>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75">
+      <c r="A50" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="50">
+        <v>1080</v>
+      </c>
+      <c r="C50" s="50">
+        <v>1160</v>
+      </c>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48">
         <v>10</v>
       </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="69" t="s">
+      <c r="F50" s="49"/>
+      <c r="G50" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="50">
+        <v>8310</v>
+      </c>
+      <c r="I50" s="50">
+        <v>8990</v>
+      </c>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75">
+      <c r="A51" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="50">
+        <v>1100</v>
+      </c>
+      <c r="C51" s="50">
+        <v>1199</v>
+      </c>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48">
         <v>20</v>
       </c>
-      <c r="H28" s="72">
-        <v>5020</v>
-      </c>
-      <c r="I28" s="72">
-        <v>5390</v>
-      </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="70">
-        <v>870</v>
-      </c>
-      <c r="C29" s="70">
-        <v>940</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70">
-        <v>10</v>
-      </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="72">
-        <v>5280</v>
-      </c>
-      <c r="I29" s="72">
-        <v>5690</v>
-      </c>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="70">
-        <v>1020</v>
-      </c>
-      <c r="C30" s="70">
-        <v>1100</v>
-      </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70">
-        <v>10</v>
-      </c>
-      <c r="F30" s="71"/>
-      <c r="G30" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="72">
-        <v>4180</v>
-      </c>
-      <c r="I30" s="72">
-        <v>4690</v>
-      </c>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="69"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="72">
-        <v>2780</v>
-      </c>
-      <c r="C32" s="72">
-        <v>2990</v>
-      </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70">
-        <v>30</v>
-      </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="72">
-        <v>5100</v>
-      </c>
-      <c r="I32" s="72">
-        <v>5490</v>
-      </c>
-      <c r="J32" s="70">
-        <v>70</v>
-      </c>
-      <c r="K32" s="70">
+      <c r="F51" s="49"/>
+      <c r="G51" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="50">
+        <v>10340</v>
+      </c>
+      <c r="I51" s="50">
+        <v>10990</v>
+      </c>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.75">
-      <c r="A33" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="72">
-        <v>2770</v>
-      </c>
-      <c r="C33" s="72">
-        <v>2990</v>
-      </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70">
-        <v>30</v>
-      </c>
-      <c r="F33" s="71"/>
-      <c r="G33" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="72">
-        <v>5560</v>
-      </c>
-      <c r="I33" s="72">
-        <v>5990</v>
-      </c>
-      <c r="J33" s="70">
-        <v>200</v>
-      </c>
-      <c r="K33" s="70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75">
-      <c r="A34" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="72">
-        <v>6540</v>
-      </c>
-      <c r="C34" s="72">
-        <v>6990</v>
-      </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="72">
-        <v>5390</v>
-      </c>
-      <c r="I34" s="72">
-        <v>5790</v>
-      </c>
-      <c r="J34" s="70">
-        <v>200</v>
-      </c>
-      <c r="K34" s="70">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15.75">
-      <c r="A35" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="72">
-        <v>8290</v>
-      </c>
-      <c r="C35" s="72">
-        <v>8890</v>
-      </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="72">
-        <v>3560</v>
-      </c>
-      <c r="I35" s="72">
-        <v>3840</v>
-      </c>
-      <c r="J35" s="70">
-        <v>400</v>
-      </c>
-      <c r="K35" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15.75">
-      <c r="A36" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="72">
-        <v>8340</v>
-      </c>
-      <c r="C36" s="72">
-        <v>8990</v>
-      </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70">
-        <v>100</v>
-      </c>
-      <c r="F36" s="71"/>
-      <c r="G36" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="72">
-        <v>3340</v>
-      </c>
-      <c r="I36" s="72">
-        <v>3590</v>
-      </c>
-      <c r="J36" s="70">
-        <v>320</v>
-      </c>
-      <c r="K36" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.75">
-      <c r="A37" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="72">
-        <v>9190</v>
-      </c>
-      <c r="C37" s="72">
-        <v>9990</v>
-      </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70">
-        <v>170</v>
-      </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="H37" s="72">
-        <v>4500</v>
-      </c>
-      <c r="I37" s="72">
-        <v>4790</v>
-      </c>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70">
-        <v>100</v>
-      </c>
-      <c r="Q37" s="61" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15.75">
-      <c r="A38" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="72">
-        <v>5290</v>
-      </c>
-      <c r="C38" s="72">
-        <v>5690</v>
-      </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70">
-        <v>80</v>
-      </c>
-      <c r="F38" s="71"/>
-      <c r="G38" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="72">
-        <v>5390</v>
-      </c>
-      <c r="I38" s="72">
-        <v>5790</v>
-      </c>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="15.75">
-      <c r="A39" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="72">
-        <v>5010</v>
-      </c>
-      <c r="C39" s="72">
-        <v>5390</v>
-      </c>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70">
-        <v>70</v>
-      </c>
-      <c r="F39" s="71"/>
-      <c r="G39" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="72">
-        <v>4970</v>
-      </c>
-      <c r="I39" s="72">
-        <v>5290</v>
-      </c>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15.75">
-      <c r="A40" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="72">
-        <v>5170</v>
-      </c>
-      <c r="C40" s="72">
-        <v>5499</v>
-      </c>
-      <c r="D40" s="70">
-        <v>50</v>
-      </c>
-      <c r="E40" s="70">
-        <v>50</v>
-      </c>
-      <c r="F40" s="71"/>
-      <c r="G40" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="72">
-        <v>4015</v>
-      </c>
-      <c r="I40" s="72">
-        <v>4390</v>
-      </c>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="15.75">
-      <c r="A41" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="72">
-        <v>5750</v>
-      </c>
-      <c r="C41" s="72">
-        <v>6190</v>
-      </c>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70">
-        <v>80</v>
-      </c>
-      <c r="F41" s="71"/>
-      <c r="G41" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="72">
-        <v>3710</v>
-      </c>
-      <c r="I41" s="72">
-        <v>3990</v>
-      </c>
-      <c r="J41" s="70">
-        <v>200</v>
-      </c>
-      <c r="K41" s="70">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="15.75">
-      <c r="A42" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="72">
-        <v>5550</v>
-      </c>
-      <c r="C42" s="72">
-        <v>5990</v>
-      </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70">
-        <v>60</v>
-      </c>
-      <c r="F42" s="71"/>
-      <c r="G42" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" s="72">
-        <v>3620</v>
-      </c>
-      <c r="I42" s="72">
-        <v>3890</v>
-      </c>
-      <c r="J42" s="70">
-        <v>320</v>
-      </c>
-      <c r="K42" s="70">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15.75">
-      <c r="A43" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="72">
-        <v>5940</v>
-      </c>
-      <c r="C43" s="72">
-        <v>6390</v>
-      </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70">
-        <v>90</v>
-      </c>
-      <c r="F43" s="71"/>
-      <c r="G43" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" s="72">
-        <v>4080</v>
-      </c>
-      <c r="I43" s="72">
-        <v>4390</v>
-      </c>
-      <c r="J43" s="70">
-        <v>200</v>
-      </c>
-      <c r="K43" s="70">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="15.75">
-      <c r="A44" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="72">
-        <v>5940</v>
-      </c>
-      <c r="C44" s="72">
-        <v>6390</v>
-      </c>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70">
-        <v>90</v>
-      </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" s="72">
-        <v>4220</v>
-      </c>
-      <c r="I44" s="72">
-        <v>4540</v>
-      </c>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="15.75">
-      <c r="A45" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="72">
-        <v>5510</v>
-      </c>
-      <c r="C45" s="72">
-        <v>5890</v>
-      </c>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70">
-        <v>0</v>
-      </c>
-      <c r="F45" s="71"/>
-      <c r="G45" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="H45" s="72">
-        <v>3710</v>
-      </c>
-      <c r="I45" s="72">
-        <v>3990</v>
-      </c>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="15.75">
-      <c r="A46" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="72">
-        <v>6470</v>
-      </c>
-      <c r="C46" s="72">
-        <v>6990</v>
-      </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70">
-        <v>0</v>
-      </c>
-      <c r="F46" s="71"/>
-      <c r="G46" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="H46" s="72">
-        <v>12590</v>
-      </c>
-      <c r="I46" s="72">
-        <v>13490</v>
-      </c>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="15.75">
-      <c r="A47" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="72">
-        <v>1220</v>
-      </c>
-      <c r="C47" s="72">
-        <v>1320</v>
-      </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70">
+    <row r="52" spans="1:11" ht="15.75">
+      <c r="A52" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="50">
+        <v>1160</v>
+      </c>
+      <c r="C52" s="50">
+        <v>1250</v>
+      </c>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48">
         <v>20</v>
       </c>
-      <c r="F47" s="71"/>
-      <c r="G47" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="H47" s="72">
-        <v>7350</v>
-      </c>
-      <c r="I47" s="72">
-        <v>7990</v>
-      </c>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="15.75">
-      <c r="A48" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="B48" s="72">
-        <v>1460</v>
-      </c>
-      <c r="C48" s="72">
-        <v>1590</v>
-      </c>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70">
-        <v>20</v>
-      </c>
-      <c r="F48" s="71"/>
-      <c r="G48" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="72">
-        <v>7890</v>
-      </c>
-      <c r="I48" s="72">
-        <v>8490</v>
-      </c>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="72">
-        <v>1070</v>
-      </c>
-      <c r="C49" s="72">
-        <v>1160</v>
-      </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70">
-        <v>0</v>
-      </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="H49" s="72">
-        <v>8310</v>
-      </c>
-      <c r="I49" s="72">
-        <v>8990</v>
-      </c>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75">
-      <c r="A50" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="72">
-        <v>1080</v>
-      </c>
-      <c r="C50" s="72">
-        <v>1160</v>
-      </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70">
-        <v>10</v>
-      </c>
-      <c r="F50" s="71"/>
-      <c r="G50" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="H50" s="72">
-        <v>8310</v>
-      </c>
-      <c r="I50" s="72">
-        <v>8990</v>
-      </c>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75">
-      <c r="A51" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="72">
-        <v>1100</v>
-      </c>
-      <c r="C51" s="72">
-        <v>1199</v>
-      </c>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70">
-        <v>20</v>
-      </c>
-      <c r="F51" s="71"/>
-      <c r="G51" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="H51" s="72">
-        <v>10340</v>
-      </c>
-      <c r="I51" s="72">
-        <v>10990</v>
-      </c>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.75">
-      <c r="A52" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="72">
-        <v>1160</v>
-      </c>
-      <c r="C52" s="72">
-        <v>1250</v>
-      </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70">
-        <v>20</v>
-      </c>
-      <c r="F52" s="71"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78" t="s">
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="79" t="s">
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="J53" s="79"/>
-      <c r="K53" s="80"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="81"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="84"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="85"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="86"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="86"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
     </row>
   </sheetData>
-  <sortState ref="A5:E52">
-    <sortCondition ref="A5:A52"/>
+  <sortState ref="G5:I51">
+    <sortCondition ref="G5:G51"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="I53:K54"/>
